--- a/results/mp/logistic/home-spam/confidence/126/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/126/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,136 +43,205 @@
     <t>return</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>waste</t>
+    <t>useless</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>difficult</t>
   </si>
   <si>
     <t>filters</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
-    <t>useless</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>thin</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>maybe</t>
   </si>
   <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>months</t>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>lid</t>
   </si>
   <si>
     <t>grind</t>
   </si>
   <si>
-    <t>ok</t>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>lid</t>
+    <t>after</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>received</t>
   </si>
   <si>
+    <t>but</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>doesn</t>
+  </si>
+  <si>
     <t>back</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>worked</t>
+    <t>did</t>
   </si>
   <si>
     <t>fit</t>
   </si>
   <si>
-    <t>hold</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
-    <t>hard</t>
+    <t>t</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>does</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>was</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>in</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>product</t>
+    <t>it</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
     <t>loves</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>pleased</t>
+    <t>perfectly</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>easy</t>
+  </si>
+  <si>
+    <t>!</t>
   </si>
   <si>
     <t>positive</t>
@@ -533,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -541,10 +610,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -602,13 +671,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9203539823008849</v>
+        <v>0.9557522123893806</v>
       </c>
       <c r="C3">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D3">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -620,19 +689,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="K3">
-        <v>0.8260869565217391</v>
+        <v>0.8046875</v>
       </c>
       <c r="L3">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="M3">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -644,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -652,13 +721,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.92</v>
+        <v>0.9292929292929293</v>
       </c>
       <c r="C4">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="D4">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -670,19 +739,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="K4">
-        <v>0.7956989247311828</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L4">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="M4">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -694,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -702,13 +771,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9090909090909091</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="D5">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -720,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="K5">
-        <v>0.7734375</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="L5">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="M5">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -744,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -752,13 +821,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8813559322033898</v>
+        <v>0.8728813559322034</v>
       </c>
       <c r="C6">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -770,19 +839,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="K6">
-        <v>0.6847457627118644</v>
+        <v>0.7084745762711865</v>
       </c>
       <c r="L6">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="M6">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -794,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -802,13 +871,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8409090909090909</v>
+        <v>0.86</v>
       </c>
       <c r="C7">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D7">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -823,16 +892,16 @@
         <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="K7">
-        <v>0.6718266253869969</v>
+        <v>0.5897832817337462</v>
       </c>
       <c r="L7">
-        <v>434</v>
+        <v>381</v>
       </c>
       <c r="M7">
-        <v>434</v>
+        <v>381</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -844,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>212</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -852,38 +921,38 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8301886792452831</v>
+        <v>0.85</v>
       </c>
       <c r="C8">
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <v>34</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L8">
         <v>44</v>
       </c>
-      <c r="D8">
+      <c r="M8">
         <v>44</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>9</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8">
-        <v>0.5800865800865801</v>
-      </c>
-      <c r="L8">
-        <v>134</v>
-      </c>
-      <c r="M8">
-        <v>134</v>
-      </c>
       <c r="N8">
         <v>1</v>
       </c>
@@ -894,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>97</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -902,13 +971,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.825</v>
+        <v>0.7513513513513513</v>
       </c>
       <c r="C9">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="D9">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -920,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="K9">
-        <v>0.4935064935064935</v>
+        <v>0.4978354978354979</v>
       </c>
       <c r="L9">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="M9">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -944,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>39</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -952,13 +1021,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8076923076923077</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="C10">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D10">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -970,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="K10">
-        <v>0.3657142857142857</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="L10">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -994,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>111</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1002,13 +1071,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7945945945945946</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C11">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c r="D11">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1020,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="H11">
+        <v>20</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11">
+        <v>0.2171428571428571</v>
+      </c>
+      <c r="L11">
         <v>38</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11">
-        <v>0.2702702702702703</v>
-      </c>
-      <c r="L11">
-        <v>30</v>
-      </c>
       <c r="M11">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1044,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>81</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1052,13 +1121,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7945205479452054</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="C12">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D12">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1070,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="K12">
-        <v>0.2239165329052969</v>
+        <v>0.1581059390048154</v>
       </c>
       <c r="L12">
-        <v>279</v>
+        <v>197</v>
       </c>
       <c r="M12">
-        <v>279</v>
+        <v>197</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1094,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>967</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1102,7 +1171,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7205882352941176</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="C13">
         <v>49</v>
@@ -1120,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="K13">
-        <v>0.1054794520547945</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="L13">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="M13">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1144,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>653</v>
+        <v>690</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1152,13 +1221,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6792452830188679</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="C14">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1170,7 +1239,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14">
+        <v>0.01881331403762663</v>
+      </c>
+      <c r="L14">
+        <v>39</v>
+      </c>
+      <c r="M14">
+        <v>43</v>
+      </c>
+      <c r="N14">
+        <v>0.91</v>
+      </c>
+      <c r="O14">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>2034</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1178,13 +1271,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6538461538461539</v>
+        <v>0.6037037037037037</v>
       </c>
       <c r="C15">
-        <v>51</v>
+        <v>1141</v>
       </c>
       <c r="D15">
-        <v>51</v>
+        <v>1141</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1196,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>27</v>
+        <v>749</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1204,13 +1297,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6509433962264151</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="C16">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D16">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1222,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1230,13 +1323,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6338028169014085</v>
+        <v>0.5566037735849056</v>
       </c>
       <c r="C17">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D17">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1248,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1256,13 +1349,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6222222222222222</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C18">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="D18">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1274,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>51</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1282,13 +1375,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6222222222222222</v>
+        <v>0.5256410256410257</v>
       </c>
       <c r="C19">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D19">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1300,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1308,13 +1401,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6205128205128205</v>
+        <v>0.5038759689922481</v>
       </c>
       <c r="C20">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="D20">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1326,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1334,13 +1427,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5743243243243243</v>
+        <v>0.4247787610619469</v>
       </c>
       <c r="C21">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="D21">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1352,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1360,13 +1453,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5658914728682171</v>
+        <v>0.4225352112676056</v>
       </c>
       <c r="C22">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1378,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1386,13 +1479,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5632183908045977</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="C23">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D23">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1404,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1412,13 +1505,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4867256637168141</v>
+        <v>0.3986486486486486</v>
       </c>
       <c r="C24">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D24">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1430,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>58</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1438,13 +1531,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4423076923076923</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="C25">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D25">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1456,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1464,13 +1557,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4230769230769231</v>
+        <v>0.3432432432432432</v>
       </c>
       <c r="C26">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="D26">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1482,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>90</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1490,13 +1583,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4174757281553398</v>
+        <v>0.3203883495145631</v>
       </c>
       <c r="C27">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D27">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1508,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1516,13 +1609,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3631284916201117</v>
+        <v>0.2788461538461539</v>
       </c>
       <c r="C28">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D28">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1534,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>114</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1542,13 +1635,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.245</v>
+        <v>0.2626472626472626</v>
       </c>
       <c r="C29">
-        <v>49</v>
+        <v>379</v>
       </c>
       <c r="D29">
-        <v>49</v>
+        <v>379</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1560,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>151</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1568,13 +1661,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2068965517241379</v>
+        <v>0.2625698324022346</v>
       </c>
       <c r="C30">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D30">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1586,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1594,13 +1687,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2048517520215633</v>
+        <v>0.2565055762081784</v>
       </c>
       <c r="C31">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D31">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1612,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>295</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1620,13 +1713,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1952380952380952</v>
+        <v>0.2355555555555555</v>
       </c>
       <c r="C32">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D32">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1638,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1646,13 +1739,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1251700680272109</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C33">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="D33">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1664,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>643</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1672,13 +1765,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1156462585034014</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="C34">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D34">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1690,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>260</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1698,25 +1791,597 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.05997392438070404</v>
+        <v>0.145</v>
       </c>
       <c r="C35">
+        <v>29</v>
+      </c>
+      <c r="D35">
+        <v>29</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="C36">
+        <v>53</v>
+      </c>
+      <c r="D36">
+        <v>53</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0.1395555555555555</v>
+      </c>
+      <c r="C37">
+        <v>157</v>
+      </c>
+      <c r="D37">
+        <v>157</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.09863945578231292</v>
+      </c>
+      <c r="C38">
+        <v>29</v>
+      </c>
+      <c r="D38">
+        <v>29</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.05783582089552239</v>
+      </c>
+      <c r="C39">
+        <v>31</v>
+      </c>
+      <c r="D39">
+        <v>31</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.05532359081419624</v>
+      </c>
+      <c r="C40">
+        <v>53</v>
+      </c>
+      <c r="D40">
+        <v>53</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D35">
-        <v>46</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>721</v>
+      <c r="B41">
+        <v>0.05259087393658159</v>
+      </c>
+      <c r="C41">
+        <v>68</v>
+      </c>
+      <c r="D41">
+        <v>68</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.04954367666232073</v>
+      </c>
+      <c r="C42">
+        <v>38</v>
+      </c>
+      <c r="D42">
+        <v>38</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.04416809605488851</v>
+      </c>
+      <c r="C43">
+        <v>103</v>
+      </c>
+      <c r="D43">
+        <v>103</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.04182735093444082</v>
+      </c>
+      <c r="C44">
+        <v>282</v>
+      </c>
+      <c r="D44">
+        <v>285</v>
+      </c>
+      <c r="E44">
+        <v>0.01</v>
+      </c>
+      <c r="F44">
+        <v>0.99</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>6460</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.04011259676284307</v>
+      </c>
+      <c r="C45">
+        <v>57</v>
+      </c>
+      <c r="D45">
+        <v>58</v>
+      </c>
+      <c r="E45">
+        <v>0.02</v>
+      </c>
+      <c r="F45">
+        <v>0.98</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.03945578231292517</v>
+      </c>
+      <c r="C46">
+        <v>29</v>
+      </c>
+      <c r="D46">
+        <v>29</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.03820497271073378</v>
+      </c>
+      <c r="C47">
+        <v>252</v>
+      </c>
+      <c r="D47">
+        <v>256</v>
+      </c>
+      <c r="E47">
+        <v>0.02</v>
+      </c>
+      <c r="F47">
+        <v>0.98</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>6344</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0.02917962209997608</v>
+      </c>
+      <c r="C48">
+        <v>122</v>
+      </c>
+      <c r="D48">
+        <v>124</v>
+      </c>
+      <c r="E48">
+        <v>0.02</v>
+      </c>
+      <c r="F48">
+        <v>0.98</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>4059</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.02622192229827437</v>
+      </c>
+      <c r="C49">
+        <v>272</v>
+      </c>
+      <c r="D49">
+        <v>281</v>
+      </c>
+      <c r="E49">
+        <v>0.03</v>
+      </c>
+      <c r="F49">
+        <v>0.97</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>10101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.02115702479338843</v>
+      </c>
+      <c r="C50">
+        <v>64</v>
+      </c>
+      <c r="D50">
+        <v>69</v>
+      </c>
+      <c r="E50">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F50">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0.02110667427267541</v>
+      </c>
+      <c r="C51">
+        <v>37</v>
+      </c>
+      <c r="D51">
+        <v>39</v>
+      </c>
+      <c r="E51">
+        <v>0.05</v>
+      </c>
+      <c r="F51">
+        <v>0.95</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.01981981981981982</v>
+      </c>
+      <c r="C52">
+        <v>77</v>
+      </c>
+      <c r="D52">
+        <v>79</v>
+      </c>
+      <c r="E52">
+        <v>0.03</v>
+      </c>
+      <c r="F52">
+        <v>0.97</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>3808</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0.01782485145957117</v>
+      </c>
+      <c r="C53">
+        <v>69</v>
+      </c>
+      <c r="D53">
+        <v>76</v>
+      </c>
+      <c r="E53">
+        <v>0.09</v>
+      </c>
+      <c r="F53">
+        <v>0.91</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.01386861313868613</v>
+      </c>
+      <c r="C54">
+        <v>76</v>
+      </c>
+      <c r="D54">
+        <v>85</v>
+      </c>
+      <c r="E54">
+        <v>0.11</v>
+      </c>
+      <c r="F54">
+        <v>0.89</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>5404</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.01352201257861635</v>
+      </c>
+      <c r="C55">
+        <v>43</v>
+      </c>
+      <c r="D55">
+        <v>48</v>
+      </c>
+      <c r="E55">
+        <v>0.1</v>
+      </c>
+      <c r="F55">
+        <v>0.9</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0.01173450678401173</v>
+      </c>
+      <c r="C56">
+        <v>32</v>
+      </c>
+      <c r="D56">
+        <v>35</v>
+      </c>
+      <c r="E56">
+        <v>0.09</v>
+      </c>
+      <c r="F56">
+        <v>0.91</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>0.007628294036061026</v>
+      </c>
+      <c r="C57">
+        <v>33</v>
+      </c>
+      <c r="D57">
+        <v>45</v>
+      </c>
+      <c r="E57">
+        <v>0.27</v>
+      </c>
+      <c r="F57">
+        <v>0.73</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>4293</v>
       </c>
     </row>
   </sheetData>
